--- a/DOM_Banner/output/dept0713/Bekir Tanriover_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Bekir Tanriover_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; Division of Nephrology, The University of Arizona, Tucson, AZ.; University of Utah, Salt Lake City, UT.; Virginia Commonwealth University, Richmond, VA.; Division of Nephrology, The University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220847717</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Early Data on Utilization and Discard of Organs From COVID-19–infected Donors: A US National Registry Analysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Transplantation</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004091</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35250008</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004091</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, Banner University Medical Center , Tucson, Arizona , USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, Arizona, USA; Division of Clinical Data Analytics and Decision Support, Department of Medicine, College of Medicine – Phoenix, University of Arizona, Phoenix, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Information Systems, Naveen Jindal School of Management, The University of Texas at Dallas, Dallas, Texas, USA; Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223491415</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab Monoclonal Antibody Treatment Among High-Risk Patients With Severe Acute Respiratory Syndrome Coronavirus 2 B.1.617.2 (Delta Variant) Infection</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35791354</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282837212</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>JAAD International</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey.; Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey.; Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey.; Division of Nephrology, Virginia Commonwealth University, Richmond, VA.; Division of Nephrology, The University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4290723743</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Increased Rates of Kidney Discard in the Era of COVID-19 and Recent KAS Policy Implementation</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Transplantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004321</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35939384</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004321</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Surgery, New York University Langone Health, New York, New York; Division of Nephrology, The University of Arizona, Tucson, Arizona; Division of Nephrology, School of Medicine, Virginia Commonwealth University, Richmond, Virginia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4302011830</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Oversimplification and Misplaced Blame Will Not Solve the Complex Kidney Underutilization Problem</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Kidney360</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0005402022</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36591359</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0005402022</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Grado Department of Industrial and Systems Engineering, Virginia Tech, Blacksburg, Virginia 24061;; Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey 34367;; Division of Nephrology, The University of Arizona, Tucson, Arizona 85724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210971474</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A Simple Incentive Mechanism to Alleviate the Burden of Organ Wastage in Transplantation</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Management Science</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Institute for Operations Research and the Management Sciences</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1287/mnsc.2021.4203</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1287/mnsc.2021.4203</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Computer Science, Texas A&amp;M University—Commerce, Commerce, Texas, USA; Information Systems, Naveen Jindal School of Business, University of Texas at Dallas, Richardson, Texas, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiovascular and Thoracic Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Virginia Commonwealth University, Information Systems, School of Business, Richmond, Virginia, USA; School of Public Health at the University of Texas Health Science Center, Dallas, Texas, USA; Division of Nephrology, Banner University Medical Group—Tucson, Tucson, Arizona, USA; School of Behavioral and Brain Sciences, University of Texas at Dallas, Richardson, Texas, USA; Dallas Nephrology Associates, Dallas, Texas, USA; Department of Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224903100</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Predicting Post-Heart Transplant Composite Renal Outcome Risk in Adults: A Machine Learning Decision Tool</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kidney International Reports</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35685329</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of SurgerySchool of MedicineYale UniversityNew HavenCT; These authors contributed equally as co‐first authors.; Division of NephrologyCollege of MedicineUniversity of ArizonaTucsonAZ; These authors contributed equally as co‐first authors.; Abdominal Medical AffairsTransMedics Group, Inc.AndoverMA; Division of Nephrology Virginia Commonwealth University  Richmond Virginia USA; Division of NephrologyBanner University Medical GroupTucsonAZ; Division of Nephrology College of Medicine University of Arizona  Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205981601</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Outcomes of Simultaneous Liver‐Kidney Transplantation Using Kidneys of Deceased Donors With Acute Kidney Injury</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-03</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Liver Transplantation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/lt.26406</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35006615</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/lt.26406</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Organ Transplantation, Rhode Island Hospital, Providence, RI 02908, USA; Natera, Inc., Austin, TX 78753, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Nephrology, Einstein Medical Center, Philadelphia, PA 19141, USA; Division of Nephrology, Wake Forest School of Medicine, Winston-Salem, NC 27157, USA; Division of Nephrology, University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Medical University of South Carolina, Charleston, SC 29425, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220987486</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Vignette-Based Reflections to Inform Genetic Testing Policies in Living Kidney Donors</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Genes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/genes13040592</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35456398</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/genes13040592</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Virginia Commonwealth University, Richmond, VA.; Eurofins Viracor Laboratories, Lee’s Summit, MO.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; University of Arizona, Tucson, AZ.; University of Utah, Salt Lake City, UT.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; Virginia Commonwealth University, Richmond, VA.; University of Arizona, Tucson, AZ.; Virginia Commonwealth University, Richmond, VA.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307751836</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Detection of Transmissible Severe Acute Respiratory Syndrome Coronavirus-2 From Deceased Kidney Donors: Implications for Kidney Transplant Recipients</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Transplantation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004422</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36316299</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004422</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Nephrology Geisinger Health  Danville Pennsylvania USA; Department of Population Health Sciences, Geisinger Health, Danville, Pennsylvania, USA.; Division of Nephrology, University of Arizona College of Medicine, Tuscon, Arizona, USA.; John C. McDonald Regional Transplant Center Louisiana State University  Shreveport Louisiana USA; Department of Nephrology, Geisinger Health, Danville, Pennsylvania, USA.; Division of Nephrology, Medical University of South Carolina, Charleston, South Carolina, USA.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297456972</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Effect of age and rural residency on perceptions about SARS‐CoV‐2 pandemic and vaccination in kidney transplant recipients</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-09-28</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Transplant Infectious Disease</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/tid.13943</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36169231</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/tid.13943</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Division of Nephrology, Banner University Medical Center, Tucson, Arizona, USA; Division of Nephrology, The University of Arizona, COM-Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona, USA; Division of Nephrology, The University of Arizona, COM-Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona, USA; Division of Nephrology, The University of Arizona, COM-Tucson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4305073007</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Utilization of hepatitis C virus-positive donors in kidney transplantation</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-10-13</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Current Opinion in Organ Transplantation</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mot.0000000000001031</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36227758</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mot.0000000000001031</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311814760</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab Monoclonal Antibody Among High-Risk Patients with SARS-Cov-2 Omicron During BA.2, BA.2.12.1 and BA.5 Subvariants Dominated Era</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Divisions of Nephrology and Transplant Surgery, Virginia Commonwealth University, Richmond, VA.; Division of Nephrology, The University of Arizona, College of Medicine, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289334207</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Donor-derived Cell-free DNA Measurement in Kidney Transplant Patients Without Allograft Dysfunction: More Evidence and More Questions</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Transplantation</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004268</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35913058</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/tp.0000000000004268</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  Istanbul Technical University;; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona Mel and Enid Zuckerman College of Public Health;;  Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Division of Nephrology, The University of Arizona, College of Medicine, Tucson, AZ, USA; Department Pathology, The University of Arizona, College of Medicine, Tucson, AZ, USA; Division of Nephrology, The University of Arizona, College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313067674</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Isolated Vascular Lesions in Renal Allograft Biopsy: How Do I Treat it?</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-13569-9_39</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-13569-9_39</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>

--- a/DOM_Banner/output/dept0713/Bekir Tanriover_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Bekir Tanriover_2022.xlsx
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Darren Stewart, Bekir Tanrıöver, Gaurav Gupta</t>
+          <t>Sait Tunç, Burhaneddin Sandıkçı, Bekir Tanrıöver</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Surgery, New York University Langone Health, New York, New York; Division of Nephrology, The University of Arizona, Tucson, Arizona; Division of Nephrology, School of Medicine, Virginia Commonwealth University, Richmond, Virginia</t>
+          <t>Grado Department of Industrial and Systems Engineering, Virginia Tech, Blacksburg, Virginia 24061;; Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey 34367;; Division of Nephrology, The University of Arizona, Tucson, Arizona 85724</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302011830</t>
+          <t>https://openalex.org/W4210971474</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oversimplification and Misplaced Blame Will Not Solve the Complex Kidney Underutilization Problem</t>
+          <t>A Simple Incentive Mechanism to Alleviate the Burden of Organ Wastage in Transplantation</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kidney360</t>
+          <t>Management Science</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Institute for Operations Research and the Management Sciences</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.34067/kid.0005402022</t>
+          <t>https://doi.org/10.1287/mnsc.2021.4203</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36591359</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.34067/kid.0005402022</t>
+          <t>https://doi.org/10.1287/mnsc.2021.4203</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sait Tunç, Burhaneddin Sandıkçı, Bekir Tanrıöver</t>
+          <t>Darren Stewart, Bekir Tanrıöver, Gaurav Gupta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grado Department of Industrial and Systems Engineering, Virginia Tech, Blacksburg, Virginia 24061;; Department of Industrial Engineering, Istanbul Technical University, Istanbul, Turkey 34367;; Division of Nephrology, The University of Arizona, Tucson, Arizona 85724</t>
+          <t>Department of Surgery, New York University Langone Health, New York, New York; Division of Nephrology, The University of Arizona, Tucson, Arizona; Division of Nephrology, School of Medicine, Virginia Commonwealth University, Richmond, Virginia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4210971474</t>
+          <t>https://openalex.org/W4302011830</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A Simple Incentive Mechanism to Alleviate the Burden of Organ Wastage in Transplantation</t>
+          <t>Oversimplification and Misplaced Blame Will Not Solve the Complex Kidney Underutilization Problem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Management Science</t>
+          <t>Kidney360</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Institute for Operations Research and the Management Sciences</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1287/mnsc.2021.4203</t>
+          <t>https://doi.org/10.34067/kid.0005402022</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36591359</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1287/mnsc.2021.4203</t>
+          <t>https://doi.org/10.34067/kid.0005402022</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,47 +969,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mutlu Mete, Mehmet Ayvaci, Venkatesh Kumar Ariyamuthu, Alpesh Amin, Matthias Peltz, Jennifer T. Thibodeau, Justin L. Grodin, Pradeep P.A. Mammen, Sonia Garg, Faris G. Araj, Robert Morlend, Mark H. Drazner, Nashila AbdulRahim, Yeongin Kim, Yusuf Salam, Ahmet B. Gungor, Bulent Delibasi, Suman K. Kotla, Malcolm MacConmara, Prince Mohan, Gaurav Gupta, Bekir Tanrıöver</t>
+          <t>Gurmukteshwar Singh, Reginald Gohh, Dinah Clark, Kartik Kalra, Manoj Das, Gitana Bradauskaite, Anthony J. Bleyer, Bekir Tanrıöver, Alex R. Chang, Prince Mohan Anand</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Computer Science, Texas A&amp;M University—Commerce, Commerce, Texas, USA; Information Systems, Naveen Jindal School of Business, University of Texas at Dallas, Richardson, Texas, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiovascular and Thoracic Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Virginia Commonwealth University, Information Systems, School of Business, Richmond, Virginia, USA; School of Public Health at the University of Texas Health Science Center, Dallas, Texas, USA; Division of Nephrology, Banner University Medical Group—Tucson, Tucson, Arizona, USA; School of Behavioral and Brain Sciences, University of Texas at Dallas, Richardson, Texas, USA; Dallas Nephrology Associates, Dallas, Texas, USA; Department of Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA</t>
+          <t>Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Organ Transplantation, Rhode Island Hospital, Providence, RI 02908, USA; Natera, Inc., Austin, TX 78753, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Nephrology, Einstein Medical Center, Philadelphia, PA 19141, USA; Division of Nephrology, Wake Forest School of Medicine, Winston-Salem, NC 27157, USA; Division of Nephrology, University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Medical University of South Carolina, Charleston, SC 29425, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4224903100</t>
+          <t>https://openalex.org/W4220987486</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Predicting Post-Heart Transplant Composite Renal Outcome Risk in Adults: A Machine Learning Decision Tool</t>
+          <t>Vignette-Based Reflections to Inform Genetic Testing Policies in Living Kidney Donors</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kidney International Reports</t>
+          <t>Genes</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
+          <t>https://doi.org/10.3390/genes13040592</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35685329</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35456398</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
+          <t>https://doi.org/10.3390/genes13040592</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,57 +1056,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ramesh Batra, Venkatesh Kumar Ariyamuthu, Malcolm MacConmara, Gaurav Gupta, Ahmet B. Gungor, Bekir Tanrıöver</t>
+          <t>Mutlu Mete, Mehmet Ayvaci, Venkatesh Kumar Ariyamuthu, Alpesh Amin, Matthias Peltz, Jennifer T. Thibodeau, Justin L. Grodin, Pradeep P.A. Mammen, Sonia Garg, Faris Araj, Robert Morlend, Mark H. Drazner, Nashila AbdulRahim, Yeongin Kim, Yusuf Salam, Ahmet B. Gungor, Bulent Delibasi, Suman K. Kotla, Malcolm MacConmara, Prince Mohan, Gaurav Gupta, Bekir Tanrıöver</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Department of SurgerySchool of MedicineYale UniversityNew HavenCT; These authors contributed equally as co‐first authors.; Division of NephrologyCollege of MedicineUniversity of ArizonaTucsonAZ; These authors contributed equally as co‐first authors.; Abdominal Medical AffairsTransMedics Group, Inc.AndoverMA; Division of Nephrology Virginia Commonwealth University  Richmond Virginia USA; Division of NephrologyBanner University Medical GroupTucsonAZ; Division of Nephrology College of Medicine University of Arizona  Tucson Arizona USA</t>
+          <t>Department of Computer Science, Texas A&amp;M University—Commerce, Commerce, Texas, USA; Information Systems, Naveen Jindal School of Business, University of Texas at Dallas, Richardson, Texas, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiovascular and Thoracic Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Cardiology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Virginia Commonwealth University, Information Systems, School of Business, Richmond, Virginia, USA; School of Public Health at the University of Texas Health Science Center, Dallas, Texas, USA; Division of Nephrology, Banner University Medical Group—Tucson, Tucson, Arizona, USA; School of Behavioral and Brain Sciences, University of Texas at Dallas, Richardson, Texas, USA; Dallas Nephrology Associates, Dallas, Texas, USA; Department of Surgery, University of Texas Southwestern Medical Center, Dallas, Texas, USA; Division of Nephrology, Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, USA; Division of Nephrology, University of Arizona College of Medicine—Tucson, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205981601</t>
+          <t>https://openalex.org/W4224903100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outcomes of Simultaneous Liver‐Kidney Transplantation Using Kidneys of Deceased Donors With Acute Kidney Injury</t>
+          <t>Predicting Post-Heart Transplant Composite Renal Outcome Risk in Adults: A Machine Learning Decision Tool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Liver Transplantation</t>
+          <t>Kidney International Reports</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/lt.26406</t>
+          <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35006615</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35685329</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/lt.26406</t>
+          <t>https://doi.org/10.1016/j.ekir.2022.04.004</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gurmukteshwar Singh, Reginald Gohh, Dinah Clark, Kartik Kalra, Manoj Das, Gitana Bradauskaite, Anthony J. Bleyer, Bekir Tanrıöver, Alex R. Chang, Prince Mohan Anand</t>
+          <t>Ramesh Batra, Venkatesh Kumar Ariyamuthu, Malcolm MacConmara, Gaurav Gupta, Ahmet B. Gungor, Bekir Tanrıöver</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Organ Transplantation, Rhode Island Hospital, Providence, RI 02908, USA; Natera, Inc., Austin, TX 78753, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Division of Nephrology, Einstein Medical Center, Philadelphia, PA 19141, USA; Division of Nephrology, Wake Forest School of Medicine, Winston-Salem, NC 27157, USA; Division of Nephrology, University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Nephrology, Geisinger Health, Danville, PA 17822, USA; Department of Nephrology, Medical University of South Carolina, Charleston, SC 29425, USA</t>
+          <t>Department of SurgerySchool of MedicineYale UniversityNew HavenCT; These authors contributed equally as co‐first authors.; Division of NephrologyCollege of MedicineUniversity of ArizonaTucsonAZ; These authors contributed equally as co‐first authors.; Abdominal Medical AffairsTransMedics Group, Inc.AndoverMA; Division of Nephrology Virginia Commonwealth University  Richmond Virginia USA; Division of NephrologyBanner University Medical GroupTucsonAZ; Division of Nephrology College of Medicine University of Arizona  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220987486</t>
+          <t>https://openalex.org/W4205981601</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vignette-Based Reflections to Inform Genetic Testing Policies in Living Kidney Donors</t>
+          <t>Outcomes of Simultaneous Liver‐Kidney Transplantation Using Kidneys of Deceased Donors With Acute Kidney Injury</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Genes</t>
+          <t>Liver Transplantation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/genes13040592</t>
+          <t>https://doi.org/10.1002/lt.26406</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35456398</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35006615</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/genes13040592</t>
+          <t>https://doi.org/10.1002/lt.26406</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
